--- a/data/Supplemental File 5_scRNAseq DE Ciliome in Epithelia.xlsx
+++ b/data/Supplemental File 5_scRNAseq DE Ciliome in Epithelia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelseytroyer/Dropbox/CILIARY HETERO DRAFT 9.16.20/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelseytroyer/Dropbox/Dev Cell-Resource-CiliaHet-2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6482F8C3-577E-9A45-A365-3E5BB18546AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E076FE2-5EB3-524E-8C67-900120D525A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25680" windowHeight="14100" xr2:uid="{57B3EF94-129A-40EF-BC94-B2A7FE53D9EC}"/>
+    <workbookView xWindow="120" yWindow="500" windowWidth="25680" windowHeight="14100" xr2:uid="{57B3EF94-129A-40EF-BC94-B2A7FE53D9EC}"/>
   </bookViews>
   <sheets>
     <sheet name="New" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="50">
   <si>
     <t>CilDB-X denotes established ciliopathy genes, Ydenotes candidate ciliopathy genes</t>
   </si>
@@ -171,28 +175,16 @@
     <t>POSITIVE</t>
   </si>
   <si>
-    <t>ENSG00000124406</t>
-  </si>
-  <si>
-    <t>ATP8A1</t>
-  </si>
-  <si>
     <t>ENSG00000135046</t>
   </si>
   <si>
     <t>ANXA1</t>
   </si>
   <si>
-    <t>ENSG00000078246</t>
-  </si>
-  <si>
-    <t>TULP3</t>
-  </si>
-  <si>
-    <t>17 DE Custom Ciliome expressed in scRNA-seq epithelial clusters</t>
-  </si>
-  <si>
     <t>Gene symbol- yellow denotes motile ciliome</t>
+  </si>
+  <si>
+    <t>15 DE Custom Ciliome expressed in scRNA-seq epithelial clusters</t>
   </si>
 </sst>
 </file>
@@ -270,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -279,9 +271,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -598,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2392D9B6-8EE7-4192-A022-13A44AE06AF6}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -614,12 +603,12 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -675,12 +664,12 @@
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>43</v>
@@ -729,118 +718,122 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>47</v>
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1">
+        <v>208</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2.9430950829999998</v>
+      </c>
+      <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="1">
-        <v>208</v>
+        <v>141</v>
       </c>
       <c r="F12" s="1">
-        <v>2.9430950829999998</v>
+        <v>4.0632289879999997</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="1">
-        <v>141</v>
-      </c>
-      <c r="F13" s="1">
-        <v>4.0632289879999997</v>
+        <v>18</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E14" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="H14" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="D15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>43</v>
+        <v>43</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3046</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-3.693046941</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>43</v>
@@ -849,10 +842,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>43</v>
@@ -860,32 +853,32 @@
       <c r="D16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="1">
-        <v>3046</v>
-      </c>
-      <c r="F16" s="1">
-        <v>-3.693046941</v>
+      <c r="E16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>43</v>
@@ -893,34 +886,34 @@
       <c r="F17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="G17" s="1"/>
       <c r="H17" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="E18" s="1">
+        <v>9859</v>
+      </c>
+      <c r="F18" s="1">
+        <v>-6.1812554119999996</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="H18" s="1" t="s">
         <v>43</v>
       </c>
@@ -928,25 +921,21 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="1">
-        <v>9859</v>
-      </c>
-      <c r="F19" s="1">
-        <v>-6.1812554119999996</v>
+        <v>20</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>43</v>
@@ -955,13 +944,17 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="E20" s="1" t="s">
         <v>43</v>
       </c>
@@ -969,7 +962,7 @@
         <v>43</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>43</v>
@@ -978,10 +971,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>43</v>
@@ -989,14 +982,14 @@
       <c r="D21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>43</v>
+      <c r="E21" s="1">
+        <v>603</v>
+      </c>
+      <c r="F21" s="1">
+        <v>9.1341513999999999E-2</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>43</v>
@@ -1005,26 +998,22 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="1">
-        <v>603</v>
-      </c>
-      <c r="F22" s="1">
-        <v>9.1341513999999999E-2</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
         <v>43</v>
       </c>
@@ -1032,71 +1021,38 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="D23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="E23" s="1">
+        <v>21537</v>
+      </c>
+      <c r="F23" s="1">
+        <v>-8.7764495749999991</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="H23" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="1">
-        <v>21537</v>
-      </c>
-      <c r="F24" s="1">
-        <v>-8.7764495749999991</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Supplemental File 5_scRNAseq DE Ciliome in Epithelia.xlsx
+++ b/data/Supplemental File 5_scRNAseq DE Ciliome in Epithelia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelseytroyer/Dropbox/Dev Cell-Resource-CiliaHet-2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Konrad\Shiny_Sam\Ciliome_Gene_Expression\data_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E076FE2-5EB3-524E-8C67-900120D525A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC4A4C56-5E5B-4DC8-BB5C-A8ACBC968D14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="500" windowWidth="25680" windowHeight="14100" xr2:uid="{57B3EF94-129A-40EF-BC94-B2A7FE53D9EC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{57B3EF94-129A-40EF-BC94-B2A7FE53D9EC}"/>
   </bookViews>
   <sheets>
     <sheet name="New" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="51">
   <si>
     <t>CilDB-X denotes established ciliopathy genes, Ydenotes candidate ciliopathy genes</t>
   </si>
@@ -185,13 +185,16 @@
   </si>
   <si>
     <t>15 DE Custom Ciliome expressed in scRNA-seq epithelial clusters</t>
+  </si>
+  <si>
+    <t>colors</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +232,14 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -262,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -273,6 +284,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,54 +603,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2392D9B6-8EE7-4192-A022-13A44AE06AF6}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
@@ -661,10 +675,12 @@
       <c r="H8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="1:10" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
@@ -689,8 +705,11 @@
       <c r="H9" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
@@ -715,9 +734,11 @@
       <c r="H10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -738,8 +759,11 @@
       <c r="H11" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -760,9 +784,11 @@
       <c r="H12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -785,10 +811,12 @@
       <c r="H13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="1"/>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -811,9 +839,11 @@
       <c r="H14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -838,9 +868,11 @@
       <c r="H15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
@@ -865,9 +897,11 @@
       <c r="H16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
@@ -890,9 +924,11 @@
       <c r="H17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -917,9 +953,11 @@
       <c r="H18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -940,9 +978,11 @@
       <c r="H19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -967,9 +1007,11 @@
       <c r="H20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
@@ -994,9 +1036,11 @@
       <c r="H21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,9 +1061,11 @@
       <c r="H22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>40</v>
       </c>
@@ -1044,9 +1090,11 @@
       <c r="H23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
